--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cd34-Sele.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cd34-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.24370850275</v>
+        <v>146.901596</v>
       </c>
       <c r="H2">
-        <v>141.24370850275</v>
+        <v>440.704788</v>
       </c>
       <c r="I2">
-        <v>0.506072389120542</v>
+        <v>0.5061978858527532</v>
       </c>
       <c r="J2">
-        <v>0.506072389120542</v>
+        <v>0.5061978858527532</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.98933855606459</v>
+        <v>4.699506666666667</v>
       </c>
       <c r="N2">
-        <v>2.98933855606459</v>
+        <v>14.09852</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9660495246229048</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9660495246229047</v>
       </c>
       <c r="Q2">
-        <v>422.2252636288185</v>
+        <v>690.3650297459735</v>
       </c>
       <c r="R2">
-        <v>422.2252636288185</v>
+        <v>6213.285267713761</v>
       </c>
       <c r="S2">
-        <v>0.506072389120542</v>
+        <v>0.4890122269931717</v>
       </c>
       <c r="T2">
-        <v>0.506072389120542</v>
+        <v>0.4890122269931716</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>135.795902728801</v>
+        <v>146.901596</v>
       </c>
       <c r="H3">
-        <v>135.795902728801</v>
+        <v>440.704788</v>
       </c>
       <c r="I3">
-        <v>0.4865530483108707</v>
+        <v>0.5061978858527532</v>
       </c>
       <c r="J3">
-        <v>0.4865530483108707</v>
+        <v>0.5061978858527532</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.98933855606459</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N3">
-        <v>2.98933855606459</v>
+        <v>0.495473</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.03395047537709522</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.03395047537709522</v>
       </c>
       <c r="Q3">
-        <v>405.9399277828015</v>
+        <v>24.26192482496934</v>
       </c>
       <c r="R3">
-        <v>405.9399277828015</v>
+        <v>218.357323424724</v>
       </c>
       <c r="S3">
-        <v>0.4865530483108707</v>
+        <v>0.01718565885958155</v>
       </c>
       <c r="T3">
-        <v>0.4865530483108707</v>
+        <v>0.01718565885958155</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.05822445200566</v>
+        <v>138.990916</v>
       </c>
       <c r="H4">
-        <v>2.05822445200566</v>
+        <v>416.972748</v>
       </c>
       <c r="I4">
-        <v>0.007374562568587207</v>
+        <v>0.4789390295796214</v>
       </c>
       <c r="J4">
-        <v>0.007374562568587207</v>
+        <v>0.4789390295796214</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.98933855606459</v>
+        <v>4.699506666666667</v>
       </c>
       <c r="N4">
-        <v>2.98933855606459</v>
+        <v>14.09852</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9660495246229048</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9660495246229047</v>
       </c>
       <c r="Q4">
-        <v>6.152729711415432</v>
+        <v>653.1887363481068</v>
       </c>
       <c r="R4">
-        <v>6.152729711415432</v>
+        <v>5878.698627132961</v>
       </c>
       <c r="S4">
-        <v>0.007374562568587207</v>
+        <v>0.4626788218487486</v>
       </c>
       <c r="T4">
-        <v>0.007374562568587207</v>
+        <v>0.4626788218487486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>138.990916</v>
+      </c>
+      <c r="H5">
+        <v>416.972748</v>
+      </c>
+      <c r="I5">
+        <v>0.4789390295796214</v>
+      </c>
+      <c r="J5">
+        <v>0.4789390295796214</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1651576666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.495473</v>
+      </c>
+      <c r="O5">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="P5">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="Q5">
+        <v>22.95541537442267</v>
+      </c>
+      <c r="R5">
+        <v>206.598738369804</v>
+      </c>
+      <c r="S5">
+        <v>0.01626020773087282</v>
+      </c>
+      <c r="T5">
+        <v>0.01626020773087282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.164219</v>
+      </c>
+      <c r="H6">
+        <v>0.492657</v>
+      </c>
+      <c r="I6">
+        <v>0.0005658707112811305</v>
+      </c>
+      <c r="J6">
+        <v>0.0005658707112811305</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.699506666666667</v>
+      </c>
+      <c r="N6">
+        <v>14.09852</v>
+      </c>
+      <c r="O6">
+        <v>0.9660495246229048</v>
+      </c>
+      <c r="P6">
+        <v>0.9660495246229047</v>
+      </c>
+      <c r="Q6">
+        <v>0.7717482852933334</v>
+      </c>
+      <c r="R6">
+        <v>6.945734567640001</v>
+      </c>
+      <c r="S6">
+        <v>0.0005466591316311611</v>
+      </c>
+      <c r="T6">
+        <v>0.0005466591316311611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.164219</v>
+      </c>
+      <c r="H7">
+        <v>0.492657</v>
+      </c>
+      <c r="I7">
+        <v>0.0005658707112811305</v>
+      </c>
+      <c r="J7">
+        <v>0.0005658707112811305</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1651576666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.495473</v>
+      </c>
+      <c r="O7">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="P7">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="Q7">
+        <v>0.02712202686233333</v>
+      </c>
+      <c r="R7">
+        <v>0.244098241761</v>
+      </c>
+      <c r="S7">
+        <v>1.921157964996938E-05</v>
+      </c>
+      <c r="T7">
+        <v>1.921157964996938E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.149135333333334</v>
+      </c>
+      <c r="H8">
+        <v>12.447406</v>
+      </c>
+      <c r="I8">
+        <v>0.01429721385634429</v>
+      </c>
+      <c r="J8">
+        <v>0.01429721385634429</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.699506666666667</v>
+      </c>
+      <c r="N8">
+        <v>14.09852</v>
+      </c>
+      <c r="O8">
+        <v>0.9660495246229048</v>
+      </c>
+      <c r="P8">
+        <v>0.9660495246229047</v>
+      </c>
+      <c r="Q8">
+        <v>19.49888915990223</v>
+      </c>
+      <c r="R8">
+        <v>175.49000243912</v>
+      </c>
+      <c r="S8">
+        <v>0.01381181664935341</v>
+      </c>
+      <c r="T8">
+        <v>0.01381181664935341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.149135333333334</v>
+      </c>
+      <c r="H9">
+        <v>12.447406</v>
+      </c>
+      <c r="I9">
+        <v>0.01429721385634429</v>
+      </c>
+      <c r="J9">
+        <v>0.01429721385634429</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1651576666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.495473</v>
+      </c>
+      <c r="O9">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="P9">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="Q9">
+        <v>0.6852615103375557</v>
+      </c>
+      <c r="R9">
+        <v>6.167353593038</v>
+      </c>
+      <c r="S9">
+        <v>0.0004853972069908815</v>
+      </c>
+      <c r="T9">
+        <v>0.0004853972069908815</v>
       </c>
     </row>
   </sheetData>
